--- a/data/xlsx/03122019.xlsx
+++ b/data/xlsx/03122019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7355DDB8-1882-BD4C-A2C9-4EC57C1494B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F199E29-5593-8A4F-9B64-B1E2BBC6CFA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>Category</t>
   </si>
@@ -64,7 +64,106 @@
     <t>UCPD</t>
   </si>
   <si>
-    <t>10:16</t>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS EVENT</t>
+  </si>
+  <si>
+    <t>2515 CHANNING WAY</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>WELFARE CHECK</t>
+  </si>
+  <si>
+    <t>WELFARE CHECK</t>
+  </si>
+  <si>
+    <t>13:14</t>
+  </si>
+  <si>
+    <t>PEDESTRIAN STOP</t>
+  </si>
+  <si>
+    <t>PEDESTRIAN STOP</t>
+  </si>
+  <si>
+    <t>BANCROFT BARROWS</t>
+  </si>
+  <si>
+    <t>13:26</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS EVENT</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS</t>
+  </si>
+  <si>
+    <t>DWINELLE HALL</t>
+  </si>
+  <si>
+    <t>13:57</t>
+  </si>
+  <si>
+    <t>MISD. HIT &amp; RUN</t>
+  </si>
+  <si>
+    <t>(MB-40-O) VICTIM OF HIT AND RUN, JACKSON AND OHLONE.</t>
+  </si>
+  <si>
+    <t>14:09</t>
+  </si>
+  <si>
+    <t>VANDALISM</t>
+  </si>
+  <si>
+    <t>2515 CHANNING WAY</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>POSS OF PARAPHERNALIA</t>
+  </si>
+  <si>
+    <t>PEOPLES PARK</t>
+  </si>
+  <si>
+    <t>14:23</t>
+  </si>
+  <si>
+    <t>MAX MARTINEZ</t>
+  </si>
+  <si>
+    <t>14:26</t>
+  </si>
+  <si>
+    <t>WELFARE CHECK</t>
+  </si>
+  <si>
+    <t>WELFARE CHECK</t>
+  </si>
+  <si>
+    <t>BOALT HALL</t>
+  </si>
+  <si>
+    <t>15:13</t>
+  </si>
+  <si>
+    <t>PEDESTRIAN STOP</t>
+  </si>
+  <si>
+    <t>SUSPECT STOP</t>
+  </si>
+  <si>
+    <t>PEOPLES PARK</t>
+  </si>
+  <si>
+    <t>16:11</t>
   </si>
   <si>
     <t>LARCENY/THEFT</t>
@@ -73,198 +172,87 @@
     <t>GRAND THEFT -REPORT</t>
   </si>
   <si>
-    <t>HUSBANDRY POULTRY</t>
-  </si>
-  <si>
-    <t>10:46</t>
+    <t>LOWER SPROUL PLAZA</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>17:24</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>CHOU</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>BAN W COLL</t>
+  </si>
+  <si>
+    <t>19:16</t>
   </si>
   <si>
     <t>SUSPICIOUS EVENT</t>
   </si>
   <si>
-    <t>2515 CHANNING WAY</t>
-  </si>
-  <si>
-    <t>11:47</t>
+    <t>SUSPICIOUS PERSON</t>
+  </si>
+  <si>
+    <t>20:43</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>21:29</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>BANC/DANA</t>
+  </si>
+  <si>
+    <t>21:40</t>
   </si>
   <si>
     <t>WELFARE CHECK</t>
   </si>
   <si>
-    <t>WELFARE CHECK</t>
-  </si>
-  <si>
-    <t>13:14</t>
-  </si>
-  <si>
-    <t>PEDESTRIAN STOP</t>
-  </si>
-  <si>
-    <t>PEDESTRIAN STOP</t>
-  </si>
-  <si>
-    <t>BANCROFT BARROWS</t>
-  </si>
-  <si>
-    <t>13:26</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS EVENT</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS</t>
-  </si>
-  <si>
-    <t>DWINELLE HALL</t>
-  </si>
-  <si>
-    <t>13:57</t>
-  </si>
-  <si>
-    <t>MISD. HIT &amp; RUN</t>
-  </si>
-  <si>
-    <t>(MB-40-O) VICTIM OF HIT AND RUN, JACKSON AND OHLONE.</t>
-  </si>
-  <si>
-    <t>14:09</t>
-  </si>
-  <si>
-    <t>VANDALISM</t>
-  </si>
-  <si>
-    <t>2515 CHANNING WAY</t>
-  </si>
-  <si>
-    <t>14:16</t>
-  </si>
-  <si>
-    <t>POSS OF PARAPHERNALIA</t>
-  </si>
-  <si>
-    <t>PEOPLES PARK</t>
-  </si>
-  <si>
-    <t>14:23</t>
-  </si>
-  <si>
-    <t>MAX MARTINEZ</t>
-  </si>
-  <si>
-    <t>14:26</t>
-  </si>
-  <si>
-    <t>WELFARE CHECK</t>
-  </si>
-  <si>
-    <t>WELFARE CHECK</t>
-  </si>
-  <si>
-    <t>BOALT HALL</t>
-  </si>
-  <si>
-    <t>15:13</t>
-  </si>
-  <si>
-    <t>PEDESTRIAN STOP</t>
-  </si>
-  <si>
-    <t>SUSPECT STOP</t>
-  </si>
-  <si>
-    <t>PEOPLES PARK</t>
-  </si>
-  <si>
-    <t>16:11</t>
-  </si>
-  <si>
-    <t>LARCENY/THEFT</t>
-  </si>
-  <si>
-    <t>GRAND THEFT -REPORT</t>
-  </si>
-  <si>
-    <t>LOWER SPROUL PLAZA</t>
-  </si>
-  <si>
-    <t>17:05</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>17:12</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>17:24</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>CHOU</t>
-  </si>
-  <si>
-    <t>17:38</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>BAN W COLL</t>
-  </si>
-  <si>
-    <t>19:16</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS EVENT</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS PERSON</t>
-  </si>
-  <si>
-    <t>20:43</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>21:29</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>BANC/DANA</t>
-  </si>
-  <si>
-    <t>21:40</t>
-  </si>
-  <si>
-    <t>WELFARE CHECK</t>
-  </si>
-  <si>
     <t>STRUCTURE C</t>
   </si>
   <si>
@@ -284,9 +272,6 @@
   </si>
   <si>
     <t>VEHICLE CODE VIOLATION</t>
-  </si>
-  <si>
-    <t>(MW-52-E) REPORTS THE THEFT OF A BLACK FLAT BED TRAILER, ANIMAL HUSBANDRY LOT.</t>
   </si>
   <si>
     <t>SUSPICIOUS CIRCUMSTANCE</t>
@@ -330,7 +315,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -379,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -719,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -736,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -751,10 +736,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -768,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -783,7 +768,7 @@
         <v>-122.259337</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -797,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -809,7 +794,7 @@
         <v>-122.25255199999999</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -820,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -835,7 +820,7 @@
         <v>-122.258157</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -846,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -861,7 +846,7 @@
         <v>-122.25861399999999</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -875,15 +860,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6">
+        <v>37.867033999999997</v>
+      </c>
+      <c r="G6">
+        <v>-122.258188</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -891,25 +880,25 @@
         <v>43536</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="F7">
-        <v>37.867033999999997</v>
+        <v>37.873480999999998</v>
       </c>
       <c r="G7">
-        <v>-122.258188</v>
+        <v>-122.26791299999999</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -917,25 +906,25 @@
         <v>43536</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F8">
-        <v>37.873480999999998</v>
+        <v>37.868845999999998</v>
       </c>
       <c r="G8">
-        <v>-122.26791299999999</v>
+        <v>-122.258337</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -955,13 +944,13 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>37.868845999999998</v>
+        <v>37.870547000000002</v>
       </c>
       <c r="G9">
-        <v>-122.258337</v>
+        <v>-122.260603</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -972,22 +961,22 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>37.885541000000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-122.30015</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>37.870547000000002</v>
-      </c>
-      <c r="G10">
-        <v>-122.260603</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -995,25 +984,25 @@
         <v>43536</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F11">
-        <v>37.885541000000003</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-122.30015</v>
+        <v>37.867033999999997</v>
+      </c>
+      <c r="G11">
+        <v>-122.258188</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1021,25 +1010,25 @@
         <v>43536</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F12">
-        <v>37.867033999999997</v>
+        <v>37.865819999999999</v>
       </c>
       <c r="G12">
-        <v>-122.258188</v>
+        <v>-122.257058</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1047,25 +1036,25 @@
         <v>43536</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F13">
-        <v>37.865819999999999</v>
+        <v>37.866781000000003</v>
       </c>
       <c r="G13">
-        <v>-122.257058</v>
+        <v>-122.257606</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1073,25 +1062,25 @@
         <v>43536</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F14">
-        <v>37.866781000000003</v>
+        <v>37.869768000000001</v>
       </c>
       <c r="G14">
-        <v>-122.257606</v>
+        <v>-122.25389300000001</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1111,13 +1100,13 @@
         <v>46</v>
       </c>
       <c r="F15">
-        <v>37.869768000000001</v>
+        <v>37.865819999999999</v>
       </c>
       <c r="G15">
-        <v>-122.25389300000001</v>
+        <v>-122.257058</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1137,13 +1126,13 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>37.865819999999999</v>
+        <v>37.86918</v>
       </c>
       <c r="G16">
-        <v>-122.257058</v>
+        <v>-122.260222</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1160,16 +1149,16 @@
         <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F17">
-        <v>37.86918</v>
+        <v>37.877198</v>
       </c>
       <c r="G17">
-        <v>-122.260222</v>
+        <v>-122.253305</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1177,16 +1166,16 @@
         <v>43536</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F18">
         <v>37.877198</v>
@@ -1195,7 +1184,7 @@
         <v>-122.253305</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1203,25 +1192,25 @@
         <v>43536</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F19">
-        <v>37.877198</v>
+        <v>37.872332999999998</v>
       </c>
       <c r="G19">
-        <v>-122.253305</v>
+        <v>-122.254499</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1241,13 +1230,13 @@
         <v>64</v>
       </c>
       <c r="F20">
-        <v>37.872332999999998</v>
+        <v>37.869304999999997</v>
       </c>
       <c r="G20">
-        <v>-122.254499</v>
+        <v>122.255116</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1264,16 +1253,16 @@
         <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F21">
-        <v>37.869304999999997</v>
+        <v>37.873480999999998</v>
       </c>
       <c r="G21">
-        <v>122.255116</v>
+        <v>-122.26791299999999</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1281,16 +1270,16 @@
         <v>43536</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F22">
         <v>37.873480999999998</v>
@@ -1299,7 +1288,7 @@
         <v>-122.26791299999999</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1307,25 +1296,25 @@
         <v>43536</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F23">
-        <v>37.873480999999998</v>
-      </c>
-      <c r="G23">
-        <v>-122.26791299999999</v>
+        <v>37.868552999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-122.261796</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1339,45 +1328,19 @@
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F24">
-        <v>37.868552999999999</v>
-      </c>
-      <c r="G24" s="4">
-        <v>-122.261796</v>
+        <v>37.866273</v>
+      </c>
+      <c r="G24">
+        <v>-122.262164</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3">
-        <v>43536</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25">
-        <v>37.866273</v>
-      </c>
-      <c r="G25">
-        <v>-122.262164</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
